--- a/docs/ST4/ST4_07.08.24_output.xlsx
+++ b/docs/ST4/ST4_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1676 +505,1989 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731444459.115579</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731444459.3654938</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444459.115579.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444459.3654938.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.75</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>280.1</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3500000000000227</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731444459.8686442</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731444465.0809329</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444459.8686442.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444465.0809329.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>279.22</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731444470.3039107</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731444471.9972444</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444470.3039107.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444471.9972444.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>279.67</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.05</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731444472.7647696</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731444473.73226</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444472.7647696.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444473.73226.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.59</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.7</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731444475.8682525</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731444476.9109027</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444475.8682525.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731444476.9109027.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>281.03</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>281.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2700000000000387</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731444477.8910797</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731444478.4700067</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444477.8910797.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444478.4700067.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.54</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.6</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731444479.0392454</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731444483.4535873</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444479.0392454.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444483.4535873.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.3</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>127.01</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.290000000000006</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731444488.8421097</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731444488.8936698</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444488.8421097.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444488.8936698.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.82</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731444490.0715945</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731444491.5570827</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444490.0715945.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731444491.5570827.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.37</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>127.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.4200000000000017</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731444493.661806</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731444493.661806.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731444493.661806.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.47</v>
       </c>
-      <c r="J12" t="n">
-        <v>128.47</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>128.61</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.1400000000000148</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731444498.5654564</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731444499.757594</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444498.5654564.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444499.757594.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6390.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6389</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731444499.8813367</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731444500.4102576</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444499.8813367.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444500.4102576.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6371</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6381.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>10.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731444501.5130675</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731444502.0446157</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444501.5130675.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444502.0446157.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6366.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6368.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731444510.1994364</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731444512.3851857</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444510.1994364.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444512.3851857.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6428</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6463</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-35</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731444512.625717</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731444512.9035711</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444512.625717.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731444512.9035711.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6477</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6476</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731444514.5103664</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731444514.5103664.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731444514.5103664.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6467.5</v>
       </c>
-      <c r="J18" t="n">
-        <v>6467.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
+      <c r="L18" t="n">
+        <v>6480.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-13</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731444517.7073338</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731444518.785074</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444517.7073338.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444518.785074.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>493</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>492.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731444518.9447417</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731444519.2575564</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444518.9447417.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444519.2575564.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>491.55</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>491.95</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731444522.9363413</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731444523.2224777</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444522.9363413.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444523.2224777.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>499.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>496.55</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3.25</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731444526.6739244</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731444527.4229372</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444526.6739244.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444527.4229372.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>498.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>498.15</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4500000000000455</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731444527.6233494</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731444528.3390496</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444527.6233494.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444528.3390496.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>498.15</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>498.8</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.6500000000000341</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731444530.5640917</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731444532.1049852</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444530.5640917.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444532.1049852.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>501.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>502.55</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-1.050000000000011</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731444534.2556121</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731444535.3937025</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444534.2556121.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731444535.3937025.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>503.15</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>504.9</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731444535.4076374</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731444535.4076374.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731444535.4076374.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>504.9</v>
       </c>
-      <c r="J26" t="n">
-        <v>504.9</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>503.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1.099999999999966</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731444535.8604634</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731444537.9096816</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444535.8604634.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444537.9096816.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>224.94</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>223.18</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-1.759999999999991</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731444538.09872</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731444539.9955957</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444538.09872.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444539.9955957.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>223</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>222.88</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731444543.6237113</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731444545.767679</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444543.6237113.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444545.767679.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>223.53</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>224.02</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4900000000000091</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731444546.8701239</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731444546.921452</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444546.8701239.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444546.921452.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>224.68</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>224.29</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3900000000000148</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731444547.7796006</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731444548.3687582</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444547.7796006.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444548.3687582.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>225.36</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>225</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.3600000000000136</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731444549.025498</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731444549.6973026</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444549.025498.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444549.6973026.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>225.79</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>226.06</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.2700000000000102</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731444552.5331953</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731444553.9032717</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444552.5331953.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731444553.9032717.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>225.92</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>226.31</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.3900000000000148</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731444553.9179533</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731444553.9179533.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731444553.9179533.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>226.31</v>
       </c>
-      <c r="J34" t="n">
-        <v>226.31</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
+      <c r="L34" t="n">
+        <v>225.97</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.3400000000000034</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731444554.4485493</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731444554.6540241</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444554.4485493.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444554.6540241.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1002</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1003.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731444555.0353005</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731444555.2366884</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444555.0353005.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444555.2366884.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1001.8</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1001.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2167,2923 +2495,3463 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731444555.9166336</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731444556.5945928</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444555.9166336.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444556.5945928.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>998.8</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1000.6</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.800000000000068</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731444558.2133207</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731444559.0424204</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444558.2133207.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444559.0424204.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>998.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1002</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3.799999999999955</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731444564.3304968</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731444564.5372827</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444564.3304968.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444564.5372827.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5999999999999091</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731444564.8985124</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731444568.7284455</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444564.8985124.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444568.7284455.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1007</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1010.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731444571.6167095</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731444572.2621746</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444571.6167095.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731444572.2621746.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1011.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1011.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731444573.6061285</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731444574.8920877</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444573.6061285.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444574.8920877.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>11.855</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>11.841</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.01400000000000112</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731444580.760992</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731444581.1466699</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444580.760992.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444581.1466699.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>11.915</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>11.909</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.005999999999998451</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731444582.1560645</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731444587.2392826</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444582.1560645.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731444587.2392826.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.917</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.901</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.01600000000000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731444591.8019512</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731444592.0457234</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444591.8019512.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444592.0457234.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>124.72</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>124.84</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731444593.1004462</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731444596.4121752</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444593.1004462.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444596.4121752.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>124.06</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>123.22</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.8400000000000034</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731444598.0552912</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731444599.5362122</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444598.0552912.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444599.5362122.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>123.18</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>123.12</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731444600.686409</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731444601.461079</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444600.686409.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444601.461079.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>122.64</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>122.98</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731444606.3823543</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731444606.6644318</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444606.3823543.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444606.6644318.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>123.58</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>123.32</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731444607.7451196</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731444609.055371</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444607.7451196.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444609.055371.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>123.58</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>123.78</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731444609.500248</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731444609.8844826</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444609.500248.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731444609.8844826.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>124.32</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>124.14</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.1799999999999926</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731444610.3616195</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731444610.4464853</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444610.3616195.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444610.4464853.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>159.7</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>159.98</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731444610.9166565</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731444612.8391147</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444610.9166565.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444612.8391147.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>159.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>158.12</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.280000000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731444620.6040947</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731444620.7011757</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444620.6040947.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444620.7011757.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>159.9</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>159.78</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731444620.9252462</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731444621.212537</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444620.9252462.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444621.212537.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>159.92</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>159.78</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1399999999999864</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731444624.4321334</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731444625.3420894</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444624.4321334.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444625.3420894.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>160.34</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>160.1</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731444627.749584</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731444628.6739793</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444627.749584.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731444628.6739793.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>160.76</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>160.66</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731444629.4891748</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731444629.5853639</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444629.4891748.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444629.5853639.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>49.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>49.195</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.09499999999999886</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731444630.0757456</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731444631.2946339</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444630.0757456.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444631.2946339.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>49.04</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>48.91</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.1300000000000026</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731444631.5512304</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731444639.779809</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444631.5512304.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444639.779809.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>48.72</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>48.675</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.04500000000000171</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731444641.684212</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731444642.1286325</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444641.684212.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444642.1286325.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>48.87</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>48.675</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1950000000000003</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731444643.2933621</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731444644.3705883</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444643.2933621.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444644.3705883.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>48.855</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>48.905</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.05000000000000426</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731444645.7916489</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731444647.3130658</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444645.7916489.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731444647.3130658.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>48.935</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>49.145</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.2100000000000009</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731444647.615705</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731444647.615705.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731444647.615705.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>49.27</v>
       </c>
-      <c r="J64" t="n">
-        <v>49.27</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
+      <c r="L64" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.0800000000000054</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731444648.9200156</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731444649.991012</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444648.9200156.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444649.991012.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1363.2</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1358</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-5.200000000000045</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731444650.580092</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731444651.1342325</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444650.580092.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444651.1342325.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1358.4</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1358.6</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.1999999999998181</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731444652.321345</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731444653.3206208</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444652.321345.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444653.3206208.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1356</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1365.6</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>9.599999999999909</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731444653.6019611</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731444654.2264414</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444653.6019611.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444654.2264414.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1373.8</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1371.8</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731444656.0844772</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731444656.2919595</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444656.0844772.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444656.2919595.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>1373.4</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>1367.2</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>6.200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731444657.7394886</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731444661.6942928</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444657.7394886.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444661.6942928.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>1372.8</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>1371.6</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>1.200000000000045</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731444662.4263403</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731444664.1899602</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444662.4263403.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444664.1899602.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>1377.6</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>1376.8</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731444664.8426626</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731444666.0203583</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444664.8426626.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731444666.0203583.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1381</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1385</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-4</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731444668.2515984</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731444669.0458987</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444668.2515984.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444669.0458987.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>59.75</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>59.74</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731444670.6819313</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731444671.7990773</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444670.6819313.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444671.7990773.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>59.5</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>59.83</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3299999999999983</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731444673.4068747</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731444673.5683608</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444673.4068747.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444673.5683608.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>60.39</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.29</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731444679.026592</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731444679.9718955</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444679.026592.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444679.9718955.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>60.38</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>60.35</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731444680.5578575</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731444681.8133626</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444680.5578575.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444681.8133626.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>60.49</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>60.93</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.4399999999999977</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731444684.727678</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731444684.8680596</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444684.727678.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731444684.8680596.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>61.18</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>61</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1799999999999997</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731444686.4510376</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731444686.6665363</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444686.4510376.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444686.6665363.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731444687.14068</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731444688.465585</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444687.14068.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444688.465585.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>95.81999999999999</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>95.48999999999999</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.3299999999999983</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731444690.2282324</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731444690.6319141</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444690.2282324.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444690.6319141.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>95.31</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>95.44</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.1299999999999955</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731444692.599624</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731444693.2903614</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444692.599624.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444693.2903614.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>96.69</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>96.8</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.1099999999999994</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731444697.7200515</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731444699.2608523</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444697.7200515.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444699.2608523.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>96.93000000000001</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>98</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-1.069999999999993</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731444703.5718207</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731444704.018662</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444703.5718207.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731444704.018662.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>98.38</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731444705.8980134</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731444706.0847769</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444705.8980134.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444706.0847769.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>55.41</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>55.44</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731444706.4120522</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731444707.7944732</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444706.4120522.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444707.7944732.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>55.3</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>55.11</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731444707.8094337</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731444708.4549856</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444707.8094337.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444708.4549856.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>55.11</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>55.33</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731444715.0528896</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731444716.0190277</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444715.0528896.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444716.0190277.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>55.56</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>55.93</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.3699999999999974</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731444716.130409</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731444718.7354686</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444716.130409.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731444718.7354686.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>55.88</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>55.95</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.07000000000000028</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731444721.5768962</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731444721.6555722</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444721.5768962.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444721.6555722.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>143.1</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>143.48</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731444721.9942431</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731444723.3930662</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444721.9942431.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444723.3930662.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>142.84</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>141.12</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-1.719999999999999</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731444723.6261177</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731444724.4925096</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444723.6261177.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444724.4925096.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>141.68</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>141.3</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731444731.7227201</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731444732.324024</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444731.7227201.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444732.324024.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>143.84</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>143.88</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731444732.7954726</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731444733.34265</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444732.7954726.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444733.34265.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>145</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>145.6</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>-0.5999999999999943</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731444733.3895242</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731444735.272241</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444733.3895242.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731444735.272241.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>145.62</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>144.66</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-0.960000000000008</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731444737.3149176</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731444737.3149176.png</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731444737.3149176.png</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>145.96</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>145.96</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5091,1208 +5959,1433 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731444737.4719832</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731444737.9265573</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444737.4719832.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444737.9265573.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.68</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.73</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.05000000000000071</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731444737.942021</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731444738.401116</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444737.942021.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444738.401116.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.73</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.639</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.09100000000000108</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731444739.0809515</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731444739.2009766</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444739.0809515.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444739.2009766.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.65</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.56</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.08999999999999986</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731444739.494896</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731444741.2095268</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444739.494896.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444741.2095268.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>19.64</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>19.584</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.05600000000000094</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731444741.2254567</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731444742.1710057</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444741.2254567.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444742.1710057.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>19.584</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>19.755</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1709999999999994</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731444749.1993546</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731444749.3324797</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444749.1993546.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444749.3324797.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>19.842</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>19.805</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.03699999999999903</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731444749.7336411</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731444749.7901554</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444749.7336411.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444749.7901554.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>19.854</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>19.817</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.03699999999999903</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731444752.704024</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731444755.5984077</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444752.704024.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444755.5984077.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>19.915</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>20.249</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>-0.3339999999999996</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-1.68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731444755.6253843</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731444755.7193844</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444755.6253843.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731444755.7193844.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>20.249</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>20.293</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.04400000000000048</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731444757.0011895</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731444758.6943774</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444757.0011895.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444758.6943774.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>667.75</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>664.8</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-2.950000000000045</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731444758.7103379</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731444759.1542358</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444758.7103379.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444759.1542358.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>664.8</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>664.35</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.4499999999999318</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731444766.9516673</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731444767.3185985</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444766.9516673.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444767.3185985.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>669.35</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>669.55</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-0.1999999999999318</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731444769.2857347</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731444769.7891471</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444769.2857347.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444769.7891471.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>670.3</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>670.55</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731444770.3506541</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731444770.589703</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444770.3506541.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731444770.589703.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>671.65</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>671.25</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731444772.863198</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731444772.863198.png</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731444772.863198.png</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>672.6</v>
       </c>
-      <c r="J111" t="n">
-        <v>672.6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
+      <c r="L111" t="n">
+        <v>674.5</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-1.899999999999977</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731444774.4209647</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731444774.7873535</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444774.4209647.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444774.7873535.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>147.28</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>147.76</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731444775.1949272</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731444777.1653013</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444775.1949272.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444777.1653013.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>146.8</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>146.73</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.0700000000000216</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731444778.244902</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731444778.4538276</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444778.244902.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444778.4538276.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>145.7</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>146.26</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.5600000000000023</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731444778.5878236</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731444778.7946527</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444778.5878236.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444778.7946527.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>145.2</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>145.9</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.7000000000000171</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731444785.9910824</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731444787.1251428</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444785.9910824.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444787.1251428.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>148.68</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>149.83</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>-1.150000000000006</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731444788.1823637</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731444789.4325812</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444788.1823637.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731444789.4325812.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>150.53</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>151.84</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-1.310000000000002</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731444793.3871024</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731444793.3871024.png</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731444793.3871024.png</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>155.78</v>
       </c>
-      <c r="J118" t="n">
-        <v>155.78</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
+      <c r="L118" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731444796.9907424</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731444797.18399</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444796.9907424.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444797.18399.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>0.09502000000000001</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09512000000000001</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.0001000000000000029</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731444798.3850722</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731444798.5593746</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444798.3850722.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444798.5593746.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>0.0959</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.09572000000000001</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.0001799999999999857</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731444798.9582953</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>1731444799.38824</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444798.9582953.png</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444799.38824.png</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>0.0961</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.0961</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6300,539 +7393,638 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731444799.74212</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731444800.8916554</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444799.74212.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444800.8916554.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>0.0965</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.0007599999999999968</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731444802.5584936</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731444805.4326572</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444802.5584936.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444805.4326572.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>0.09648000000000001</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-0.00118</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-1.22</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731444805.449615</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731444805.9649239</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444805.449615.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444805.9649239.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>0.09724000000000001</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>-0.0004200000000000037</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731444806.842426</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731444806.937223</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444806.842426.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444806.937223.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>0.09772</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>0.09754</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.0001799999999999996</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731444809.8640742</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>1731444810.6859589</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444809.8640742.png</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>./test_images/FEES1731444810.6859589.png</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>0.09778000000000001</v>
       </c>
-      <c r="J126" t="n">
+      <c r="L126" t="n">
         <v>0.0975</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>0.0002800000000000025</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B127" t="n">
+        <v>125</v>
+      </c>
+      <c r="C127" t="n">
+        <v>125</v>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>1731444811.4565222</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>1731444811.8534834</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444811.4565222.png</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444811.8534834.png</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
         <v>2893.05</v>
       </c>
-      <c r="J127" t="n">
+      <c r="L127" t="n">
         <v>2899.45</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>6.399999999999636</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B128" t="n">
+        <v>126</v>
+      </c>
+      <c r="C128" t="n">
+        <v>126</v>
+      </c>
+      <c r="D128" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>1731444812.0926523</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>1731444815.713738</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444812.0926523.png</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444815.713738.png</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
         <v>2891.65</v>
       </c>
-      <c r="J128" t="n">
+      <c r="L128" t="n">
         <v>2873.9</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>-17.75</v>
+      </c>
+      <c r="N128" t="n">
+        <v>-0.61</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>1731444822.788684</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>1731444823.188464</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444822.788684.png</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444823.188464.png</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
         <v>2901.8</v>
       </c>
-      <c r="J129" t="n">
+      <c r="L129" t="n">
         <v>2898.45</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>3.350000000000364</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>1731444823.7294436</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>1731444826.058429</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444823.7294436.png</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444826.058429.png</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
         <v>2907.6</v>
       </c>
-      <c r="J130" t="n">
+      <c r="L130" t="n">
         <v>2913.05</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>-5.450000000000273</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B131" t="n">
+        <v>129</v>
+      </c>
+      <c r="C131" t="n">
+        <v>129</v>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>1731444826.2980747</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>1731444826.5778446</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444826.2980747.png</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444826.5778446.png</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
         <v>2918.7</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>2908.15</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>10.54999999999973</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B132" t="n">
+        <v>130</v>
+      </c>
+      <c r="C132" t="n">
+        <v>130</v>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>1731444828.608568</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1731444829.1945357</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444828.608568.png</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>./test_images/MXI1731444829.1945357.png</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>ST4</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>ST4</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
         <v>2919.55</v>
       </c>
-      <c r="J132" t="n">
+      <c r="L132" t="n">
         <v>2918.45</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>1.100000000000364</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +8038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6875,6 +8067,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6891,6 +8093,12 @@
       <c r="D2" t="n">
         <v>0.02688888888888899</v>
       </c>
+      <c r="E2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -6907,6 +8115,12 @@
       <c r="D3" t="n">
         <v>1.300000000000011</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6923,6 +8137,12 @@
       <c r="D4" t="n">
         <v>-1.250000000000209e-05</v>
       </c>
+      <c r="E4" t="n">
+        <v>-0.08999999999999991</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6931,13 +8151,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.450000000000045</v>
+        <v>0.3500000000000796</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1812500000000057</v>
+        <v>0.04375000000000995</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06999999999999998</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -6947,13 +8173,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.059999999999974</v>
+        <v>-1.399999999999977</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1324999999999967</v>
+        <v>-0.1749999999999972</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6199999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
@@ -6963,13 +8195,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1450000000000102</v>
+        <v>-0.06500000000000483</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.02071428571428718</v>
+        <v>-0.009285714285714976</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -6987,6 +8225,12 @@
       <c r="D8" t="n">
         <v>-0.365714285714286</v>
       </c>
+      <c r="E8" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -7003,6 +8247,12 @@
       <c r="D9" t="n">
         <v>0.7428571428571169</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -7011,13 +8261,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.7900000000000205</v>
+        <v>-0.7700000000000102</v>
       </c>
       <c r="C10" t="n">
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1128571428571458</v>
+        <v>-0.1100000000000015</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.4899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -7035,6 +8291,12 @@
       <c r="D11" t="n">
         <v>-0.02857142857142898</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -7043,13 +8305,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-23</v>
+        <v>-36</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.833333333333333</v>
+        <v>-6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="13">
@@ -7067,6 +8335,12 @@
       <c r="D13" t="n">
         <v>0.03166666666666747</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.3099999999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -7083,6 +8357,12 @@
       <c r="D14" t="n">
         <v>-0.3000000000000303</v>
       </c>
+      <c r="E14" t="n">
+        <v>-0.06000000000000003</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -7099,6 +8379,12 @@
       <c r="D15" t="n">
         <v>-0.06666666666666761</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.2400000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -7107,13 +8393,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2.550000000000068</v>
+        <v>-4.450000000000045</v>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4250000000000114</v>
+        <v>-0.7416666666666742</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="17">
@@ -7131,6 +8423,12 @@
       <c r="D17" t="n">
         <v>-0.1633333333333364</v>
       </c>
+      <c r="E17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -7139,13 +8437,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.7400000000000091</v>
+        <v>-0.8800000000000239</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1480000000000018</v>
+        <v>-0.1760000000000048</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="19">
@@ -7163,6 +8467,12 @@
       <c r="D19" t="n">
         <v>-0.06000000000000227</v>
       </c>
+      <c r="E19" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -7179,6 +8489,12 @@
       <c r="D20" t="n">
         <v>-0.1359999999999985</v>
       </c>
+      <c r="E20" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -7195,6 +8511,12 @@
       <c r="D21" t="n">
         <v>0.01199999999999986</v>
       </c>
+      <c r="E21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -7209,6 +8531,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
